--- a/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:10:23+00:00</t>
+    <t>2025-10-21T07:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:40:55+00:00</t>
+    <t>2025-10-22T07:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:21:52+00:00</t>
+    <t>2025-10-22T14:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/CodeSystem-TDDUIEncounterParticipant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:35:45+00:00</t>
+    <t>2025-10-23T08:42:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
